--- a/biology/Médecine/Glossa/Glossa.xlsx
+++ b/biology/Médecine/Glossa/Glossa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Glossa, Cahiers de l'UNADREO est une revue scientifique publiée depuis 1986. Elle propose des articles inédits relevant du champ de l’orthophonie, qu’il s’agisse de la clinique comme d’aspects théoriques relatifs au langage oral et écrit, dans des disciplines ou orientations telles que les sciences du langage, la psycholinguistique, la psychopédagogie, la pragmatique, la neuropsychologie ou encore la médecine de réhabilitation. Elle permet ainsi aux cliniciens et aux chercheurs d'avoir un accès à l'actualité des connaissances dans le domaine de la communication et du langage. Depuis janvier 2009, Glossa est une revue électronique en ligne et l'ensemble des archives est aussi consultable en ligne.
